--- a/task breakdown calculator.xlsx
+++ b/task breakdown calculator.xlsx
@@ -403,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,12 +509,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>3</v>
       </c>
@@ -523,34 +523,38 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <f>SUM(A12:A18)</f>
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <f>13/3</f>
+        <v>4.333333333333333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>3</v>
       </c>
@@ -559,29 +563,29 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <f>SUM(A21:A25)</f>
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>10</v>
       </c>
@@ -590,7 +594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <f>SUM(A28:A31)</f>
         <v>22</v>
